--- a/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_03_end.xlsx
+++ b/story/Activity Story 活动剧情/a001 Grani and the Knights' Treasure 骑兵与猎人 騎兵と狩人/level_a001_03_end.xlsx
@@ -432,7 +432,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Big Bob"]   You're not afraid of me…
+    <t xml:space="preserve">[name="Big Bob"]   You're not afraid of me...
 </t>
   </si>
   <si>
@@ -448,11 +448,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Big Bob"]   …Hmph.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Big Bob"]   Thanks, shorty. You're naive, but you’re a good person.
+    <t xml:space="preserve">[name="Big Bob"]   ...Hmph.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Big Bob"]   Thanks, shorty. You're naive, but you're a good person.
 </t>
   </si>
   <si>
